--- a/biology/Zoologie/Carpophage_pauline/Carpophage_pauline.xlsx
+++ b/biology/Zoologie/Carpophage_pauline/Carpophage_pauline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula aenea
-Le Carpophage pauline[1] ou Carpophage impérial (Ducula aenea) est une espèce de pigeon. Il a un certain nombre de sous-espèces, dont la forme caractéristique de Sulawesi, Ducula aenea paulina.
+Le Carpophage pauline ou Carpophage impérial (Ducula aenea) est une espèce de pigeon. Il a un certain nombre de sous-espèces, dont la forme caractéristique de Sulawesi, Ducula aenea paulina.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gros pigeon dodu de 38 à 48 cm de longueur pour une masse de 365 à 650 g. La tête, le cou, la poitrine et le haut du dos sont généralement gris cendré teinté de rose. Quelques plumes blanc crémeux marquent la base du bec et le tour des yeux. Le dessus du corps et les couvertures alaires sont vert clair plus ou moins bleuté et bronze métallique. Les rémiges et la queue sont d'un vert foncé métallique tirant sur le noir. Le ventre est clair et tend vers le blanc. Les sous-caudales sont brunes. Les iris et les cercles oculaires sont rouges, le bec gris bleu foncé et les pattes rouge violacé. Les deux sexes sont presque similaires, la femelle étant légèrement plus sombre.
 Le jeune présente un plumage un peu plus terne avec le rose de la tête moins prononcé.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est largement répandu dans les régions tropicales d'Asie du Sud-Est de l'Inde à l'Indonésie.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les jungles, les zones boisées humides, les mangroves et les marais.
 </t>
@@ -606,7 +624,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un pigeon arboricole, se nourrissant dans les arbres en compagnie d'autres espèces frugivores. Ils ne sont pas très grégaires, vivant souvent seul ou en couple mais pouvant former de petits groupes. L'oiseau a un cri profond et résonnant qui est souvent la première indication de la présence de cette espèce dans les arbres. Son vol est rapide et direct avec des battements d'ailes réguliers et occasionnellement des forts battements rapides caractéristiques des pigeons en général.
 </t>
@@ -637,7 +657,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme surtout des figues mais aussi des noix de muscade, d'autres fruits et des baies.
 </t>
@@ -668,7 +690,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux partenaires construisent un nid léger de branchages à faible hauteur (4 à 6 m) dans un arbre ou un buisson épais. La femelle y pond un seul œuf blanc (42 × 32 mm), exceptionnellement deux. L'incubation dure 18 jours. Le jeune s'envole à l'âge de 20 jours.
 </t>
@@ -699,11 +723,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Ducula aenea (Linnaeus, 1766)[1]. L'espèce a été initialement classée dans le genre Columba sous le protonyme Columba aenea Linnaeus, 1766[1].
-Sous-espèces
-Cet oiseau est représenté par 12 sous-espèces :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ducula aenea (Linnaeus, 1766). L'espèce a été initialement classée dans le genre Columba sous le protonyme Columba aenea Linnaeus, 1766.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Carpophage_pauline</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carpophage_pauline</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cet oiseau est représenté par 12 sous-espèces :
 Ducula aenea aenea (Linné, 1766) en Malaisie, à Bornéo et à Sumatra ;
 Ducula aenea sylvatica (Tickell, 1833) du nord de l'Inde jusqu'à la Thaïlande ;
 Ducula aenea pusilla (Blyth, 1849)au Sri Lanka ;
